--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.40</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.02</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.29</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2280,14 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.29</v>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2296,14 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2312,13 +2421,621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2918,7 +2919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,17 +2930,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2949,14 +2970,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.37</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2965,14 +3008,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2981,14 +3046,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.02</v>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2997,14 +3084,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.29</v>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3013,14 +3122,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3029,13 +3160,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>10.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.02</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.29</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3461,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3555,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000960-锡业股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>10.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.31</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.29</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3174,7 +3797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3572,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3664,136 +4287,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7915</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>